--- a/graph_generation/results_prelim/gpt4/level_10/k_0.xlsx
+++ b/graph_generation/results_prelim/gpt4/level_10/k_0.xlsx
@@ -32,37 +32,30 @@
   </si>
   <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 12 nodes labelled A to L. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
-What is the least cost path to travel first from node 0 to node H, and then from node node H to node 11? Return 2 sequences of nodes in response.
+What is the least cost path to travel first from node A to node E, and then from node node E to node L? Return 2 sequences of nodes in response.
    A B C D E F G H I J K L
- A 0 1 0 0 0 0 0 0 0 0 0 0
- B 1 0 4 0 0 0 0 0 0 2 0 1
- C 0 4 0 1 0 0 0 0 4 0 0 0
- D 0 0 1 0 2 0 0 0 0 0 0 0
- E 0 0 0 2 0 5 0 0 0 0 0 0
- F 0 0 0 0 5 0 4 0 0 0 0 0
- G 0 0 0 0 0 4 0 4 0 0 0 0
- H 0 0 0 0 0 0 4 0 0 0 0 0
- I 0 0 4 0 0 0 0 0 0 0 0 0
- J 0 2 0 0 0 0 0 0 0 0 5 0
- K 0 0 0 0 0 0 0 0 0 5 0 5
- L 0 1 0 0 0 0 0 0 0 0 5 0
+ A 0 5 0 0 0 0 0 0 0 0 0 3
+ B 5 0 3 0 0 0 0 0 3 0 0 0
+ C 0 3 0 2 1 0 0 0 0 0 0 0
+ D 0 0 2 0 0 0 0 0 0 0 0 0
+ E 0 0 1 0 0 2 0 0 0 0 0 0
+ F 0 0 0 0 2 0 5 0 0 0 0 0
+ G 0 0 0 0 0 5 0 2 0 0 0 0
+ H 0 0 0 0 0 0 2 0 0 0 0 0
+ I 0 3 0 0 0 0 0 0 0 2 2 5
+ J 0 0 0 0 0 0 0 0 2 0 1 0
+ K 0 0 0 0 0 0 0 0 2 1 0 0
+ L 3 0 0 0 0 0 0 0 5 0 0 0
     </t>
   </si>
   <si>
-    <t>Path from A to H: A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H
-Path from H to L: H -&gt; G -&gt; F -&gt; E -&gt; D -&gt; C -&gt; B -&gt; L</t>
-  </si>
-  <si>
-    <t>The adjacency matrix shows the nodes labeled from A to L, not from 0 to 11. So the question seems to have confused nodes with their labels, but I will convert these into A-L for the purpose of response.
-First, it's unclear in the wording exactly where we are starting. The question is asking for the least cost travel first from node 0, but we don't have a node 0. However, I will make an assumption that we must travel from node A.
-In the first sequence, we should go from node A to node H. According to the matrix we can find two sequences with the least cost 5: A -&gt; B -&gt; L -&gt; H and A -&gt; B -&gt; J -&gt; H.
-The second sequence, from node H to node L (11 in the question): we can directly go from H -&gt; L with cost 0. 
-So, the sequences are:
-1. A -&gt; B -&gt; L -&gt; H
-2. H -&gt; L
-If we could also go by another route:
-1. A -&gt; B -&gt; J -&gt; H
-2. H -&gt; L</t>
+    <t>Path from A to E: A -&gt; B -&gt; C -&gt; E
+Path from E to L: E -&gt; C -&gt; B -&gt; A -&gt; L</t>
+  </si>
+  <si>
+    <t>The least cost path from node A to E is A -&gt; L -&gt; C -&gt; E with a cost of 3+0+1= 4.
+The least cost path from node E to L is E -&gt; C -&gt; L with a cost of 1+0=1.
+So the two sequences are A-L-C-E and E-C-L.</t>
   </si>
   <si>
     <t>Wrong</t>
